--- a/NominasMaecco/bin/Debug/Archivos/Maecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/Maecco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="7680" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="TMM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="PERSONAL DE PLANTA" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="RESUMEN ok" sheetId="16" state="hidden" r:id="rId6"/>
     <sheet name="FACTURACION" sheetId="6" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="SA" sheetId="9" state="hidden" r:id="rId9"/>
     <sheet name="BSS" sheetId="11" state="hidden" r:id="rId10"/>
     <sheet name="FEB" sheetId="13" state="hidden" r:id="rId11"/>
@@ -5089,7 +5089,7 @@
   </sheetPr>
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="10" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -23385,7 +23385,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="C5:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/NominasMaecco/bin/Debug/Archivos/Maecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/Maecco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TMM" sheetId="1" r:id="rId1"/>
@@ -2759,7 +2759,7 @@
     <t>01-31 JUNIO 2018</t>
   </si>
   <si>
-    <t>MAECCO JULIO 2018</t>
+    <t>MAECCO 2018</t>
   </si>
 </sst>
 </file>
@@ -5089,8 +5089,8 @@
   </sheetPr>
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
@@ -7789,6 +7789,16 @@
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="F9:F10"/>
@@ -7805,16 +7815,6 @@
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="landscape" r:id="rId1"/>
@@ -13036,8 +13036,8 @@
   </sheetPr>
   <dimension ref="B1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
